--- a/biology/Botanique/Jardins_du_Séminaire/Jardins_du_Séminaire.xlsx
+++ b/biology/Botanique/Jardins_du_Séminaire/Jardins_du_Séminaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_du_S%C3%A9minaire</t>
+          <t>Jardins_du_Séminaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Jardins du Séminaire (tchèque : Seminářská zahrada) sont situés sur la colline de Petřín, à Prague, en République Tchèque. Il s'agit d'un ancien jardin de monastère, devenu depuis 1927 propriété de la ville de Prague, qui en a fait depuis 1930 un parc accessible au public. Faisant partie du parc de Petřín, il est protégé en tant que monument culturel de la République tchèque[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Jardins du Séminaire (tchèque : Seminářská zahrada) sont situés sur la colline de Petřín, à Prague, en République Tchèque. Il s'agit d'un ancien jardin de monastère, devenu depuis 1927 propriété de la ville de Prague, qui en a fait depuis 1930 un parc accessible au public. Faisant partie du parc de Petřín, il est protégé en tant que monument culturel de la République tchèque.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_du_S%C3%A9minaire</t>
+          <t>Jardins_du_Séminaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin du séminaire a été fondé au XVIIe siècle et appartenait à l’origine au monastère de la ville basse des Carmes Déchaux de Notre-Dame Victorieuse. Après l’abolition du monastère, le jardin fut repris par le séminaire de l’archevêque en 1793. Lors de la restauration en 1912-1914, des chemins ont été construits et le jardin a été planté d’arbres fruitiers.
 Le jardin couvre une superficie d'environ 17 hectares. Dans la partie supérieure du jardin, il y a un petit étang. La partie inférieure est traversée par le funiculaire de Petřín. De la pente du jardin, il y a une vue attrayante sur la Vieille Ville, la Ville Basse et Hradčany. À l’heure actuelle, plus de 2 700 arbres fruitiers poussent ici.
